--- a/files/useful_functions.xlsx
+++ b/files/useful_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rfolder\MVEN10material\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/ekol-usa_lu_se/Documents/Dokument/riskkurs_2025/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EF23F-F7D6-46ED-91EC-75D7FCE6116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2CD49-2415-47B3-B64A-CCC3825A75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sample" sheetId="1" r:id="rId1"/>
@@ -1128,6 +1128,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1135,7 +1136,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2032,6 +2032,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2039,7 +2040,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3498,8 +3498,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="920750"/>
-              <a:ext cx="4572000" cy="2768600"/>
+              <a:off x="0" y="904875"/>
+              <a:ext cx="4838700" cy="2720975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4210,9 +4210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4250,7 +4250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4356,7 +4356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4498,7 +4498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4508,14 +4508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F570"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>842302</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>842517</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>84300903</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>84348301</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>84358402</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>843786</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>844359</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>84458202</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>844981</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>84501001</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>845636</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>84610002</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>846226</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>846381</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>84667401</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>84799002</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>848406</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>84862001</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>849014</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8510426</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>8510653</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8510824</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>9.5039999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>8511133</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>851509</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>852552</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>852631</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>852763</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>852781</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>852973</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>853201</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>17.57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>853401</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>853612</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>85382601</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>854002</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>19.27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>854039</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>854253</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>854268</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>854941</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>855133</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>855138</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>855167</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>855563</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>855625</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>856106</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>85638502</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>857010</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>85713702</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>8.1959999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>85715</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>857155</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>857156</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>13.49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>857343</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>857373</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>857374</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>857392</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>857438</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>85759902</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>857637</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>857793</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>857810</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>858477</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>8.6180000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>858970</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>858981</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>8.5980000000000008</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>858986</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>859196</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>9.173</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>85922302</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>859283</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>859464</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>9.4649999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>859465</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>859471</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>9.0289999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>859487</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>859575</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>859711</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>8.8879999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>859717</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>859983</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>8610175</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>8610404</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>8610629</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>8610637</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>8610862</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>8610908</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>861103</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8611161</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>13.34</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8611555</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>25.22</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8611792</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8612080</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8612399</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86135501</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>86135502</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>861597</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>861598</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>861648</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>861799</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>15.37</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>861853</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>862009</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>862028</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>86208</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>86211</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>862261</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>9.7870000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>862485</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>862548</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>862717</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>862722</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>6.9809999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>862965</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>862980</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>9.8759999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>862989</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>863030</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>863031</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>863270</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>86355</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>22.27</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>864018</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>864033</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>9.7769999999999992</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>86408</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>86409</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>14.26</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>864292</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>864496</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>8.7260000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>864685</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>864726</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>864729</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>864877</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>865128</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>865137</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>86517</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>865423</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>865432</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>865468</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>13.37</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>86561</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>866083</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>866203</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>866458</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>866674</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>19.79</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>866714</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>12.19</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>8670</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>86730502</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>867387</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>15.71</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>867739</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>868202</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>868223</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>868682</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>868826</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>868871</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>868999</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>9.7379999999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>869104</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>16.11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>869218</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>869224</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>869254</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>869476</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>869691</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>86973701</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>86973702</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>869931</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>871001501</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>871001502</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>8.2189999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>8710441</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>9.7309999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>87106</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>8711002</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>8711003</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>8711202</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>8711216</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>871122</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>871149</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>8711561</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>8711803</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>19.190000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>871201</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>8712064</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>8712289</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>23.27</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>8712291</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>87127</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>8712729</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>8712766</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>8712853</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>14.97</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>87139402</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>87163</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>87164</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>871641</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>871642</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>872113</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>8.6709999999999994</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>872608</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>9.9039999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>87281702</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>873357</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>873586</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>873592</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>873593</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>21.09</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>873701</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>873843</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>873885</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>874158</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>874217</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>874373</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>874662</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>874839</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>874858</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>875093</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>875099</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>875263</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>87556202</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>875878</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>875938</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>877159</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>877486</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>877500</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>877501</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>877989</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>17.54</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>878796</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>87880</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>87930</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>879523</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>879804</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>9.8759999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>879830</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>8810158</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>8810436</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>881046502</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>8810528</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>8810703</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>881094802</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>8810955</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>8810987</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>8811523</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>8811779</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>8811842</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>88119002</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>8812816</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>8812818</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>8812844</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>10.18</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>8812877</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>8813129</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>88143502</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>88147101</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>88147102</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>88147202</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>881861</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>881972</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>88199202</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>88203002</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>88206102</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>882488</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>9.5670000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>88249602</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>88299702</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>23.21</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>883263</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>883270</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>88330202</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>88350402</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>883539</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>883852</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>88411702</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>884180</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>884437</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>884448</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>884626</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>88466802</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>884689</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>884948</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>88518501</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>885429</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>8860702</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>886226</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>886452</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>88649001</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>886776</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>15.32</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>887181</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>88725602</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>887549</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>888264</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>888570</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>889403</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>889719</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>88995002</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>20.73</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>8910251</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>8910499</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>8910506</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>8910720</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>8910721</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>8910748</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>8910988</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>8910996</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>9.7420000000000009</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>8911163</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>8911164</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>8911230</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>8911670</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>8911800</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>8911834</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>8912049</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>8912055</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>89122</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>8912280</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>8912284</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>8912521</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>8912909</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>8913</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>8913049</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>89143601</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>89143602</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>8915</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>891670</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>891703</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>891716</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>891923</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>891936</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>892189</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>892214</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>14.26</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>892399</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>892438</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>892604</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>89263202</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>892657</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>89296</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>893061</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>89344</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>89346</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>893526</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>893548</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>893783</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>89382601</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>89382602</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>893988</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>894047</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>894089</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>894090</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>894326</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>894329</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>9.0419999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>894335</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>894604</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>894618</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>894855</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>12.86</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>895100</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>89511501</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>89511502</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>89524</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>895299</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>8953902</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>895633</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>896839</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>16.03</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>896864</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>897132</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>897137</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>897374</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>89742801</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>897604</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>897630</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>897880</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>89812</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>23.51</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>89813</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>898143</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>9.6059999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>89827</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>898431</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>89864002</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>898677</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>898678</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>12.06</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>89869</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>898690</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>11.47</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>899147</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>899187</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>899667</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>899987</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>25.73</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>9010018</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>901011</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>9010258</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>9010259</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>901028</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>9010333</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>8.8780000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>901034301</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>9.4359999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>901034302</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>12.54</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>901041</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>9010598</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>9010872</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>9010877</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>901088</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>20.440000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>9011494</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>9011495</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>9011971</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>21.71</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>9012000</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>9012315</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>9012568</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>15.19</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>9012795</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>901288</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>9013005</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>901303</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>901315</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>9013579</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>9013594</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>9013838</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>901549</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>901836</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>90250</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>90251</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>902727</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>90291</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>902975</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>902976</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>903011</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>90312</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>90317302</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>903483</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>8.734</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>903507</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>15.49</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>903516</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>903554</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>903811</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>14.06</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>90401601</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>13.51</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>90401602</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>904302</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>904357</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>90439701</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>904647</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>904689</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>9047</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>904969</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>904971</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>905189</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>16.14</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>905190</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>90524101</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>905501</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>905502</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>905520</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>905539</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>9.3970000000000002</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>905557</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>905680</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>905686</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>905978</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>9.4049999999999994</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>90602302</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>906024</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>906290</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>906539</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>906564</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>906616</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>906878</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>907145</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>9.7420000000000009</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>907367</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>907409</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>90745</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>90769601</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>90769602</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>907914</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>907915</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>908194</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>908445</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>908469</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>908489</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>908916</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>909220</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>909231</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>909410</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>909411</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>909445</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>17.27</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>90944601</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>909777</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>9110127</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>18.03</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>9110720</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>9110732</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>9110944</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>911150</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>911157302</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>9111596</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>9111805</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>9111843</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>911201</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>911202</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>9112085</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>9112366</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>9112367</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>9112594</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>9112712</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>9.7550000000000008</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>911296201</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>911296202</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>9113156</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>911320501</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>911320502</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>9113239</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>9113455</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>9113514</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>9.6679999999999993</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>9113538</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>911366</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>9113778</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>9.6669999999999998</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>9113816</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>911384</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>14.92</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>9113846</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>911391</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>911408</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>911654</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>911673</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>911685</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>911916</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>912193</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>91227</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>912519</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>912558</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>912600</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>913063</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>913102</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>913505</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>913512</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>913535</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>91376701</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>91376702</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>914062</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>914101</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>914102</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>914333</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>914366</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>914580</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>914769</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>91485</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>914862</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>91504</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>91505</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>12.54</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>915143</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>915186</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>9.2680000000000007</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>915276</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>9.6760000000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>91544001</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>91544002</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>915452</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>915460</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>91550</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>915664</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>915691</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>915940</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>91594602</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>15.05</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>916221</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>916799</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>916838</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>917062</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>917080</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>917092</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>9.2949999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>91762702</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>91789</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>917896</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>917897</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>9.8469999999999995</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>91805</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>8.5709999999999997</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>91813701</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>91813702</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>918192</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>918465</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>91858</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>91903901</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>91903902</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>91930402</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>919537</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>919555</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>91979701</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>919812</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>921092</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>7.7290000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>921362</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>921385</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>921386</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>921644</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>922296</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>922297</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>922576</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>13.62</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>922577</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>922840</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>923169</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>9.6829999999999998</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>923465</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>10.82</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>923748</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>923780</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>924084</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>924342</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>9.3330000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>924632</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>924934</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>924964</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>925236</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>9.423</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>925277</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>925291</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>925292</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>925311</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>925622</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>926125</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>926424</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>926682</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>926954</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>927241</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>92751</v>
       </c>
@@ -10799,19 +10799,19 @@
   <dimension ref="A4:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.26953125" customWidth="1"/>
-    <col min="5" max="5" width="40.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" customWidth="1"/>
+    <col min="4" max="4" width="49.265625" customWidth="1"/>
+    <col min="5" max="5" width="40.46484375" customWidth="1"/>
+    <col min="6" max="6" width="25.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D5" t="s">
         <v>26</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>13.37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>52</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>20.576000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>14.127291739894563</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>3.5240488262120517</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>6.9809999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>12.418920129526541</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>9.5291999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>24.944970990160588</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>8038.4290000000065</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -11051,12 +11051,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B5D04-893E-45C3-B871-C7FBD59E4E2F}">
   <dimension ref="J10:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="10:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J12" s="6">
         <v>5</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J13" s="6">
         <v>10</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J14" s="6">
         <v>15</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J15" s="6">
         <v>20</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J16" s="6">
         <v>25</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.45">
       <c r="J17" s="6">
         <v>30</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="10:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="10:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K18" s="1" t="s">
         <v>23</v>
       </c>
@@ -11158,20 +11158,20 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
         <v>91</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.1265489544735578</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>19.756987694330149</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -11212,12 +11212,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
         <v>91</v>
       </c>
@@ -11225,42 +11225,42 @@
         <v>0.51045834044304683</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>88</v>
       </c>
@@ -11275,15 +11275,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEECBDF-C91F-4CA0-B775-0774157B3ADE}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="4" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -11291,7 +11293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -11307,12 +11309,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -11323,7 +11325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v>7.614897772416594E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.02</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>1.383375310878345E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.03</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>1.9440557547554894E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.04</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>2.4621078293137522E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.05</v>
       </c>
@@ -11388,7 +11390,7 @@
         <v>2.946732582153468E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.06</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>3.403513291218857E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -11414,7 +11416,7 @@
         <v>3.8362261305783338E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.08</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>4.247606464618589E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.09</v>
       </c>
@@ -11440,7 +11442,7 @@
         <v>4.6397322234302152E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>5.0142380552139099E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.11</v>
       </c>
@@ -11466,7 +11468,7 @@
         <v>5.3724447716997616E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.12</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>5.7154423939914184E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.13</v>
       </c>
@@ -11492,7 +11494,7 @@
         <v>6.0441459769881578E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.14000000000000001</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>6.3593345744445612E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.15</v>
       </c>
@@ -11518,7 +11520,7 @@
         <v>6.6616792929623525E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.16</v>
       </c>
@@ -11531,7 +11533,7 @@
         <v>6.9517640224386182E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.17</v>
       </c>
@@ -11544,7 +11546,7 @@
         <v>7.2301010975192287E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.18</v>
       </c>
@@ -11557,7 +11559,7 @@
         <v>7.4971433571032503E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.19</v>
       </c>
@@ -11570,7 +11572,7 @@
         <v>7.7532935854547777E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>7.998912011651664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.21</v>
       </c>
@@ -11596,7 +11598,7 @@
         <v>8.2343223436881288E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.22</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>8.4598166792885482E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.23</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>8.6756595435042633E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.24</v>
       </c>
@@ -11635,7 +11637,7 @@
         <v>8.8820912388675885E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.25</v>
       </c>
@@ -11648,7 +11650,7 @@
         <v>9.0793306481173411E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.26</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>9.2675775964092572E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.27</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>9.4470148556240002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.28000000000000003</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>9.6178098553034608E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.28999999999999998</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>9.7801161511234705E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.3</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>9.9340746914306791E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.31</v>
       </c>
@@ -11726,7 +11728,7 @@
         <v>0.10079814914377595</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.32</v>
       </c>
@@ -11739,7 +11741,7 @@
         <v>0.10217455701973342</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.33</v>
       </c>
@@ -11752,7 +11754,7 @@
         <v>0.103471062124889</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.34</v>
       </c>
@@ -11765,7 +11767,7 @@
         <v>0.10468866608793748</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.35</v>
       </c>
@@ -11778,7 +11780,7 @@
         <v>0.10582828697119015</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0.36</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>0.10689076488263825</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.37</v>
       </c>
@@ -11804,7 +11806,7 @@
         <v>0.1078768669125385</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.38</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>0.10878729147822906</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.39</v>
       </c>
@@ -11830,7 +11832,7 @@
         <v>0.10962267214742441</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.4</v>
       </c>
@@ -11843,7 +11845,7 @@
         <v>0.11038358099910299</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.41</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>0.11107053157182446</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.42</v>
       </c>
@@ -11869,7 +11871,7 @@
         <v>0.11168398144152958</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.43</v>
       </c>
@@ -11882,7 +11884,7 @@
         <v>0.11222433446429544</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.44</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>0.11269194271391124</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.45</v>
       </c>
@@ -11908,7 +11910,7 @@
         <v>0.11308710813931908</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.46</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>0.11341008396278086</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.47</v>
       </c>
@@ -11934,7 +11936,7 @@
         <v>0.11366107583596072</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0.48</v>
       </c>
@@ -11947,7 +11949,7 @@
         <v>0.11384024276785229</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.49</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>0.11394769783554326</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -11973,7 +11975,7 @@
         <v>0.11398350868612363</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.51</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>0.11394769783554326</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.52</v>
       </c>
@@ -11999,7 +12001,7 @@
         <v>0.11384024276785229</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.53</v>
       </c>
@@ -12012,7 +12014,7 @@
         <v>0.11366107583596072</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.54</v>
       </c>
@@ -12025,7 +12027,7 @@
         <v>0.11341008396278086</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.55000000000000004</v>
       </c>
@@ -12038,7 +12040,7 @@
         <v>0.11308710813931908</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0.56000000000000005</v>
       </c>
@@ -12051,7 +12053,7 @@
         <v>0.11269194271391124</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.56999999999999995</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>0.11222433446429544</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.57999999999999996</v>
       </c>
@@ -12077,7 +12079,7 @@
         <v>0.11168398144152958</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.59</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0.11107053157182446</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.6</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>0.11038358099910299</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.61</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>0.10962267214742441</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0.62</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>0.10878729147822906</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.63</v>
       </c>
@@ -12142,7 +12144,7 @@
         <v>0.1078768669125385</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.64</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>0.10689076488263825</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.65</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>0.10582828697119015</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.66</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>0.10468866608793748</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.67</v>
       </c>
@@ -12194,7 +12196,7 @@
         <v>0.103471062124889</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.68</v>
       </c>
@@ -12207,7 +12209,7 @@
         <v>0.10217455701973342</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.69</v>
       </c>
@@ -12220,7 +12222,7 @@
         <v>0.10079814914377595</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.7</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>9.9340746914306791E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.71</v>
       </c>
@@ -12246,7 +12248,7 @@
         <v>9.780116151123476E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0.72</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>9.6178098553034663E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.73</v>
       </c>
@@ -12272,7 +12274,7 @@
         <v>9.4470148556240002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>0.74</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>9.2675775964092572E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.75</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>9.0793306481173411E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.76</v>
       </c>
@@ -12311,7 +12313,7 @@
         <v>8.8820912388675885E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.77</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>8.6756595435042633E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0.78</v>
       </c>
@@ -12337,7 +12339,7 @@
         <v>8.4598166792885454E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.79</v>
       </c>
@@ -12350,7 +12352,7 @@
         <v>8.2343223436881288E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.8</v>
       </c>
@@ -12363,7 +12365,7 @@
         <v>7.998912011651664E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0.81</v>
       </c>
@@ -12376,7 +12378,7 @@
         <v>7.7532935854547777E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0.82</v>
       </c>
@@ -12389,7 +12391,7 @@
         <v>7.4971433571032711E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0.83</v>
       </c>
@@ -12402,7 +12404,7 @@
         <v>7.2301010975192287E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>0.84</v>
       </c>
@@ -12415,7 +12417,7 @@
         <v>6.9517640224386182E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>0.85</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>6.6616792929623456E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>0.86</v>
       </c>
@@ -12441,7 +12443,7 @@
         <v>6.3593345744445612E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>0.87</v>
       </c>
@@ -12454,7 +12456,7 @@
         <v>6.0441459769881523E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>0.88</v>
       </c>
@@ -12467,7 +12469,7 @@
         <v>5.7154423939914184E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0.89</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>5.3724447716997616E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0.9</v>
       </c>
@@ -12493,7 +12495,7 @@
         <v>5.0142380552139099E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>0.91</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>4.6397322234302152E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>0.92</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>4.2476064646186064E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>0.93</v>
       </c>
@@ -12532,7 +12534,7 @@
         <v>3.8362261305783248E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>0.94</v>
       </c>
@@ -12545,7 +12547,7 @@
         <v>3.4035132912188591E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>0.95</v>
       </c>
@@ -12558,7 +12560,7 @@
         <v>2.9467325821534735E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>0.96</v>
       </c>
@@ -12571,7 +12573,7 @@
         <v>2.4621078293137522E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>0.97</v>
       </c>
@@ -12584,7 +12586,7 @@
         <v>1.9440557547554894E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>0.98</v>
       </c>
@@ -12597,7 +12599,7 @@
         <v>1.383375310878345E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>0.99</v>
       </c>
@@ -12624,14 +12626,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -12640,15 +12642,15 @@
       </c>
       <c r="D2">
         <f ca="1">RAND()</f>
-        <v>0.67274717666061112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.39956596670319422</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -12657,13 +12659,13 @@
       </c>
       <c r="D6">
         <f ca="1">_xlfn.NORM.INV(RAND(),14,3.5)</f>
-        <v>12.915010106840432</v>
+        <v>17.749146513030311</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>59</v>
       </c>
@@ -12672,7 +12674,7 @@
       </c>
       <c r="D8">
         <f ca="1">_xlfn.BETA.INV(RAND(),2,8)</f>
-        <v>0.16567236673165342</v>
+        <v>0.14851578393945206</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
@@ -12687,25 +12689,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4921634A-9DA5-4037-93BD-1277FFBB4BD1}">
   <dimension ref="B7:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.06640625" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <f ca="1">_xlfn.BETA.INV(RAND(),2,8)</f>
-        <v>0.13943498953430614</v>
+        <v>0.13761014014703585</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -12714,10 +12718,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" ref="B9:B26" ca="1" si="0">_xlfn.BETA.INV(RAND(),2,8)</f>
-        <v>1.4726858525288794E-2</v>
+        <v>7.8199621639959388E-2</v>
       </c>
       <c r="D9" t="s">
         <v>62</v>
@@ -12726,10 +12730,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4628481726967331E-2</v>
+        <v>3.4784104317920762E-2</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -12742,32 +12746,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27905828222933371</v>
+        <v>3.4531558805268911E-2</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">AVERAGE(B:B)</f>
-        <v>0.14347177856883869</v>
+        <v>0.14836450424908834</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5097388836283443E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+        <v>9.0639124045703484E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3016721131551998E-2</v>
+        <v>0.34859321415967326</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -12780,32 +12784,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54990300094899847</v>
+        <v>0.14800008562214811</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="8">
         <f ca="1">_xlfn.PERCENTILE.INC(B:B,0.95)</f>
-        <v>0.43989822514035493</v>
+        <v>0.3290933021179866</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23289576385035882</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1.5316431690033416E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8752814386262794E-2</v>
+        <v>7.6519979000166952E-2</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -12818,70 +12822,70 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2519481710702585E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.2062850274398863</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23807842768817489</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.15967856982958969</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17482148401616202</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.16709956753240329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0790557729381627E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.32806699095789782</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21602427772213439</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.16431719375958323</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7880592483275316E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+        <v>8.9683123438680137E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1791851899282388E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.24080883710125855</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2605773071521199E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.1221742237559723</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10829593412564353</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.16026905550594708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43410850009779467</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+        <v>0.23597429870650066</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27">
         <f ca="1">_xlfn.BETA.INV(RAND(),2,8)</f>
-        <v>1.0592039616005113E-2</v>
+        <v>0.12873893752613796</v>
       </c>
     </row>
   </sheetData>
